--- a/data/case1/11/V2_3.xlsx
+++ b/data/case1/11/V2_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.9999999869566637</v>
+        <v>0.99999999446970245</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99581473821046451</v>
+        <v>0.9944998079261258</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97979598195747952</v>
+        <v>0.97214215219555355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.97381900911307828</v>
+        <v>0.96152676808084692</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.96837678703066143</v>
+        <v>0.95129592019270204</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9556851379437028</v>
+        <v>0.92663871104989726</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.95346370306258554</v>
+        <v>0.92236117510864024</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.95094440416348125</v>
+        <v>0.91620857385910226</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.95056834627813691</v>
+        <v>0.90981930224196872</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.95114740683392474</v>
+        <v>0.90434502994904264</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.95135041837680256</v>
+        <v>0.90355327550941966</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.95199358771861797</v>
+        <v>0.90230268269265901</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.95716960862690259</v>
+        <v>0.89876440425612647</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.96037492946215897</v>
+        <v>0.8981998272798537</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.9577841424704332</v>
+        <v>0.89886605953967713</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.9552781177138725</v>
+        <v>0.89635948494246276</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.95157070762125762</v>
+        <v>0.89265147740156348</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.95046185608394462</v>
+        <v>0.89154255851653308</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99374426225602963</v>
+        <v>0.99209588929849657</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.97814962714784004</v>
+        <v>0.97294572906710941</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.97675119835709667</v>
+        <v>0.97154722220467449</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.97548670683197081</v>
+        <v>0.9702827112085266</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.97276100199865201</v>
+        <v>0.9651064573831275</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95973991714285045</v>
+        <v>0.95208466699319783</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.95328290952374739</v>
+        <v>0.94562751775399945</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.95455398668857305</v>
+        <v>0.92413376529779023</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.95322941359793867</v>
+        <v>0.92089104295302016</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.94786786614758212</v>
+        <v>0.9092254520101043</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.94461317401490963</v>
+        <v>0.90125291546560948</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.94414984110391242</v>
+        <v>0.89847003688903049</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.95179703467761989</v>
+        <v>0.9000192021001816</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.95273509276265367</v>
+        <v>0.90149801393925033</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.95564533689535958</v>
+        <v>0.89937853159520675</v>
       </c>
     </row>
   </sheetData>
